--- a/Day2 Songs.xlsx
+++ b/Day2 Songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="135">
   <si>
     <t>Running down a dream</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>Not this Gig:</t>
+  </si>
+  <si>
+    <t>changes</t>
   </si>
 </sst>
 </file>
@@ -811,11 +814,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,6 +1632,11 @@
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K30">
